--- a/Data/Phase Diagram Data.xlsx
+++ b/Data/Phase Diagram Data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Dropbox\Workspace\Github\CZTS-Project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="285" windowWidth="21075" windowHeight="7725" activeTab="2"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="600K" sheetId="2" r:id="rId2"/>
     <sheet name="900K" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -402,6 +407,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -449,7 +457,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +492,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3377,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Phase Diagram Data.xlsx
+++ b/Data/Phase Diagram Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="285" windowWidth="21075" windowHeight="7725" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="285" windowWidth="21075" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="298K" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="104">
   <si>
     <t>Phase Diagram Data</t>
   </si>
@@ -703,17 +703,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
@@ -2629,14 +2629,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
@@ -2644,9 +2645,10 @@
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2660,8 +2662,13 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2678,7 +2685,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>88</v>
@@ -2687,13 +2694,31 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2708,7 +2733,7 @@
         <v>-22.844640000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2719,7 +2744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2730,7 +2755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2741,7 +2766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2752,7 +2777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2763,7 +2788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2771,7 +2796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2781,8 +2806,11 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>-244.277072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2793,7 +2821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2804,7 +2832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2812,7 +2840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2820,7 +2848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2830,8 +2858,11 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>-152.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2849,6 +2880,9 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
+      <c r="D17">
+        <v>-93</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3013,7 +3047,7 @@
         <v>-35.388272000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -3021,7 +3055,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -3033,7 +3067,7 @@
         <v>-376.85287999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -3045,7 +3079,7 @@
         <v>-537.00384800000006</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -3057,7 +3091,7 @@
         <v>-44.392240000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3065,7 +3099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3077,7 +3111,7 @@
         <v>-214.46347200000002</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3089,7 +3123,7 @@
         <v>-28.062087999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -3097,7 +3131,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -3105,7 +3139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3120,7 +3154,7 @@
         <v>-245.399968</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -3135,7 +3169,7 @@
         <v>-238.282984</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3147,230 +3181,582 @@
         <v>49.241496000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>57</v>
       </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>-9.3699999999999992</v>
+      </c>
+      <c r="H48">
+        <v>164</v>
+      </c>
+      <c r="I48">
+        <v>2.8</v>
+      </c>
+      <c r="K48">
+        <v>164</v>
+      </c>
+      <c r="L48">
+        <f>F48-600*I48/1000</f>
+        <v>-11.049999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>58</v>
       </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>-8.891</v>
+      </c>
+      <c r="H49">
+        <v>164</v>
+      </c>
+      <c r="I49">
+        <v>2.89</v>
+      </c>
+      <c r="K49">
+        <v>164</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ref="L49:L70" si="0">F49-600*I49/1000</f>
+        <v>-10.625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>59</v>
       </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>-7.97</v>
+      </c>
+      <c r="H50">
+        <v>164</v>
+      </c>
+      <c r="I50">
+        <v>2.89</v>
+      </c>
+      <c r="K50">
+        <v>164</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>-9.7040000000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>101</v>
       </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>-7.03</v>
+      </c>
+      <c r="H51">
+        <v>164</v>
+      </c>
+      <c r="I51">
+        <v>2.89</v>
+      </c>
+      <c r="K51">
+        <v>164</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>-8.7639999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>65</v>
       </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>-5.86</v>
+      </c>
+      <c r="H52">
+        <v>164</v>
+      </c>
+      <c r="I52">
+        <v>2.72</v>
+      </c>
+      <c r="K52">
+        <v>164</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>-7.4920000000000009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>66</v>
       </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>-4.5199999999999996</v>
+      </c>
+      <c r="H53">
+        <v>164</v>
+      </c>
+      <c r="I53">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K53">
+        <v>164</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>-5.9779999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>67</v>
       </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>-3.09</v>
+      </c>
+      <c r="H54">
+        <v>164</v>
+      </c>
+      <c r="I54">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K54">
+        <v>164</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>-4.2959999999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>68</v>
       </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>-1.58</v>
+      </c>
+      <c r="H55">
+        <v>164</v>
+      </c>
+      <c r="I55">
+        <v>1.3</v>
+      </c>
+      <c r="K55">
+        <v>164</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>-2.3600000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>69</v>
       </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>-9.4550000000000001</v>
+      </c>
+      <c r="H56">
+        <v>164</v>
+      </c>
+      <c r="I56">
+        <v>3.72</v>
+      </c>
+      <c r="K56">
+        <v>164</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>-11.687000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>70</v>
       </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>-11.295999999999999</v>
+      </c>
+      <c r="H57">
+        <v>164</v>
+      </c>
+      <c r="I57">
+        <v>1.2552000000000001</v>
+      </c>
+      <c r="K57">
+        <v>164</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>-12.049119999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>-9.1419999999999995</v>
+      </c>
+      <c r="H58">
+        <v>164</v>
+      </c>
+      <c r="I58">
+        <v>4.18</v>
+      </c>
+      <c r="K58">
+        <v>164</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>-11.649999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>72</v>
       </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <v>-11.337999999999999</v>
+      </c>
+      <c r="H59">
+        <v>164</v>
+      </c>
+      <c r="I59">
+        <v>0.92</v>
+      </c>
+      <c r="K59">
+        <v>164</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>-11.889999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>74</v>
       </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>-10.37</v>
+      </c>
+      <c r="H60">
+        <v>164</v>
+      </c>
+      <c r="I60">
+        <v>1.97</v>
+      </c>
+      <c r="K60">
+        <v>164</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>-11.552</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>73</v>
       </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>-8.49</v>
+      </c>
+      <c r="H61">
+        <v>164</v>
+      </c>
+      <c r="I61">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K61">
+        <v>164</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>-11.225999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>75</v>
       </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>-7.69</v>
+      </c>
+      <c r="H62">
+        <v>164</v>
+      </c>
+      <c r="I62">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K62">
+        <v>164</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>-10.600000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>76</v>
       </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>-7.4475199999999999</v>
+      </c>
+      <c r="H63">
+        <v>164</v>
+      </c>
+      <c r="I63">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="K63">
+        <v>164</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>-10.38152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>77</v>
       </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>-10.66</v>
+      </c>
+      <c r="H64">
+        <v>164</v>
+      </c>
+      <c r="I64">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K64">
+        <v>164</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>-11.338000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>78</v>
       </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>-12.34</v>
+      </c>
+      <c r="H65">
+        <v>164</v>
+      </c>
+      <c r="I65">
+        <v>0.54</v>
+      </c>
+      <c r="K65">
+        <v>164</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>-12.664</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>79</v>
       </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>-11.715</v>
+      </c>
+      <c r="H66">
+        <v>164</v>
+      </c>
+      <c r="I66">
+        <v>1.46</v>
+      </c>
+      <c r="K66">
+        <v>164</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>-12.590999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>80</v>
       </c>
-      <c r="C65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67">
+        <v>164</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67">
+        <v>164</v>
+      </c>
+      <c r="L67" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>81</v>
       </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <v>-5.3550000000000004</v>
+      </c>
+      <c r="H68">
+        <v>164</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>164</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="0"/>
+        <v>-5.9550000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>82</v>
       </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69">
+        <v>164</v>
+      </c>
+      <c r="I69" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69">
+        <v>164</v>
+      </c>
+      <c r="L69" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>83</v>
       </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>85</v>
-      </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" t="s">
-        <v>62</v>
+      <c r="F70">
+        <v>-7.1959999999999997</v>
+      </c>
+      <c r="H70">
+        <v>164</v>
+      </c>
+      <c r="I70">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="K70">
+        <v>164</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="0"/>
+        <v>-7.6975999999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3383,10 +3769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,9 +3787,10 @@
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3417,8 +3804,13 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3435,7 +3827,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>88</v>
@@ -3444,13 +3836,31 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3465,7 +3875,7 @@
         <v>-39.923728000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3476,7 +3886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3487,7 +3897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3498,7 +3908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3509,7 +3919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3520,7 +3930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -3528,7 +3938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3538,8 +3948,11 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>-496.45282400000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -3550,7 +3963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3561,7 +3974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3569,7 +3982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3577,7 +3990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -3587,8 +4000,11 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>-188.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -3606,6 +4022,9 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
+      <c r="D17">
+        <v>-112.95</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3772,7 +4191,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -3784,7 +4203,7 @@
         <v>-461.54122400000006</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -3796,7 +4215,7 @@
         <v>-659.97997600000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3808,7 +4227,7 @@
         <v>-126.90908800000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -3816,7 +4235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -3828,7 +4247,7 @@
         <v>-260.90587199999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -3836,7 +4255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3848,7 +4267,7 @@
         <v>-50.279128</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -3856,7 +4275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -3871,7 +4290,7 @@
         <v>-276.25696800000003</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3886,7 +4305,7 @@
         <v>-272.25706400000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -3898,230 +4317,582 @@
         <v>-35.049368000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>57</v>
       </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>-9.3699999999999992</v>
+      </c>
+      <c r="H47">
+        <v>164</v>
+      </c>
+      <c r="I47">
+        <v>2.8</v>
+      </c>
+      <c r="K47">
+        <v>164</v>
+      </c>
+      <c r="L47">
+        <f>F47-900*I47/1000</f>
+        <v>-11.889999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>58</v>
       </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>-8.891</v>
+      </c>
+      <c r="H48">
+        <v>164</v>
+      </c>
+      <c r="I48">
+        <v>2.89</v>
+      </c>
+      <c r="K48">
+        <v>164</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ref="L48:L69" si="0">F48-900*I48/1000</f>
+        <v>-11.492000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>59</v>
       </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>-7.97</v>
+      </c>
+      <c r="H49">
+        <v>164</v>
+      </c>
+      <c r="I49">
+        <v>2.89</v>
+      </c>
+      <c r="K49">
+        <v>164</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>-10.571</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>-7.03</v>
+      </c>
+      <c r="H50">
+        <v>164</v>
+      </c>
+      <c r="I50">
+        <v>2.89</v>
+      </c>
+      <c r="K50">
+        <v>164</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>-9.6310000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>65</v>
       </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>-5.86</v>
+      </c>
+      <c r="H51">
+        <v>164</v>
+      </c>
+      <c r="I51">
+        <v>2.72</v>
+      </c>
+      <c r="K51">
+        <v>164</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>-8.3079999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>66</v>
       </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>-4.5199999999999996</v>
+      </c>
+      <c r="H52">
+        <v>164</v>
+      </c>
+      <c r="I52">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K52">
+        <v>164</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>-6.706999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>67</v>
       </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>-3.09</v>
+      </c>
+      <c r="H53">
+        <v>164</v>
+      </c>
+      <c r="I53">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K53">
+        <v>164</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>-4.8989999999999991</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>68</v>
       </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>-1.58</v>
+      </c>
+      <c r="H54">
+        <v>164</v>
+      </c>
+      <c r="I54">
+        <v>1.3</v>
+      </c>
+      <c r="K54">
+        <v>164</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>69</v>
       </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>-9.4550000000000001</v>
+      </c>
+      <c r="H55">
+        <v>164</v>
+      </c>
+      <c r="I55">
+        <v>3.72</v>
+      </c>
+      <c r="K55">
+        <v>164</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>-12.803000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>70</v>
       </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>-11.295999999999999</v>
+      </c>
+      <c r="H56">
+        <v>164</v>
+      </c>
+      <c r="I56">
+        <v>1.2552000000000001</v>
+      </c>
+      <c r="K56">
+        <v>164</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>-12.42568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>71</v>
       </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>-9.1419999999999995</v>
+      </c>
+      <c r="H57">
+        <v>164</v>
+      </c>
+      <c r="I57">
+        <v>4.18</v>
+      </c>
+      <c r="K57">
+        <v>164</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>-12.904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>72</v>
       </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>-11.337999999999999</v>
+      </c>
+      <c r="H58">
+        <v>164</v>
+      </c>
+      <c r="I58">
+        <v>0.92</v>
+      </c>
+      <c r="K58">
+        <v>164</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>-12.165999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>74</v>
       </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <v>-10.37</v>
+      </c>
+      <c r="H59">
+        <v>164</v>
+      </c>
+      <c r="I59">
+        <v>1.97</v>
+      </c>
+      <c r="K59">
+        <v>164</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>-12.142999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>73</v>
       </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>-8.49</v>
+      </c>
+      <c r="H60">
+        <v>164</v>
+      </c>
+      <c r="I60">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K60">
+        <v>164</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>-12.594000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>75</v>
       </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>-7.69</v>
+      </c>
+      <c r="H61">
+        <v>164</v>
+      </c>
+      <c r="I61">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K61">
+        <v>164</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>-12.055</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>76</v>
       </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>-7.4475199999999999</v>
+      </c>
+      <c r="H62">
+        <v>164</v>
+      </c>
+      <c r="I62">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="K62">
+        <v>164</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>-11.848520000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>77</v>
       </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>-10.66</v>
+      </c>
+      <c r="H63">
+        <v>164</v>
+      </c>
+      <c r="I63">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K63">
+        <v>164</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>-11.677</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>78</v>
       </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>-12.34</v>
+      </c>
+      <c r="H64">
+        <v>164</v>
+      </c>
+      <c r="I64">
+        <v>0.54</v>
+      </c>
+      <c r="K64">
+        <v>164</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>-12.826000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>79</v>
       </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>-11.715</v>
+      </c>
+      <c r="H65">
+        <v>164</v>
+      </c>
+      <c r="I65">
+        <v>1.46</v>
+      </c>
+      <c r="K65">
+        <v>164</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>-13.029</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>80</v>
       </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66">
+        <v>164</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66">
+        <v>164</v>
+      </c>
+      <c r="L66" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>81</v>
       </c>
-      <c r="C65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>-5.3550000000000004</v>
+      </c>
+      <c r="H67">
+        <v>164</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>164</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="0"/>
+        <v>-6.2550000000000008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>82</v>
       </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>164</v>
+      </c>
+      <c r="I68" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68">
+        <v>164</v>
+      </c>
+      <c r="L68" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>83</v>
       </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>85</v>
-      </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" t="s">
-        <v>62</v>
+      <c r="F69">
+        <v>-7.1959999999999997</v>
+      </c>
+      <c r="H69">
+        <v>164</v>
+      </c>
+      <c r="I69">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="K69">
+        <v>164</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="0"/>
+        <v>-7.9483999999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Data/Phase Diagram Data.xlsx
+++ b/Data/Phase Diagram Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Dropbox\Workspace\Github\CZTS-Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Dropbox\Workspace\Github\CZTS-Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="112">
   <si>
     <t>Phase Diagram Data</t>
   </si>
@@ -338,6 +338,30 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>\citep{KubaschewskiCatterallJohnAshley.1956}</t>
+  </si>
+  <si>
+    <t>\citep{Barin1977}</t>
+  </si>
+  <si>
+    <t>\citep{Hiroi1986}</t>
+  </si>
+  <si>
+    <t>\citep{Haynes2013}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \citep{Barin1977}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\citep{Haynes2013} </t>
+  </si>
+  <si>
+    <t>\citep{WagmanDonaldD1969}</t>
+  </si>
+  <si>
+    <t>\citep{Hellwege1984}</t>
   </si>
 </sst>
 </file>
@@ -386,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -396,6 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -701,34 +726,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D38" sqref="D38"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -746,1876 +769,1628 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>88</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
       <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" t="s">
         <v>88</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
-        <v>99</v>
-      </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
+      <c r="B3">
         <v>-9.8699999999999992</v>
       </c>
-      <c r="E3">
+      <c r="C3">
         <v>155</v>
       </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1">
+        <v>156</v>
+      </c>
+      <c r="G3" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>156</v>
+      </c>
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
         <v>156</v>
       </c>
-      <c r="I3" s="1">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>156</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1">
-        <v>156</v>
-      </c>
-      <c r="O3" s="1">
+      <c r="M3" s="1">
         <v>1084.6199999999999</v>
       </c>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="J4">
+        <v>-56.9</v>
+      </c>
+      <c r="K4">
+        <v>0.4</v>
       </c>
       <c r="L4">
-        <v>-56.9</v>
-      </c>
-      <c r="M4">
-        <v>0.4</v>
-      </c>
-      <c r="N4">
         <v>157</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="J5">
+        <v>-64.3</v>
+      </c>
+      <c r="K5">
+        <v>0.4</v>
       </c>
       <c r="L5">
-        <v>-64.3</v>
-      </c>
-      <c r="M5">
-        <v>0.4</v>
-      </c>
-      <c r="N5">
         <v>157</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+      <c r="G7">
+        <v>98.3</v>
       </c>
       <c r="I7">
-        <v>98.3</v>
-      </c>
-      <c r="K7">
         <v>158</v>
       </c>
+      <c r="J7">
+        <v>-76.400000000000006</v>
+      </c>
       <c r="L7">
-        <v>-76.400000000000006</v>
-      </c>
-      <c r="N7">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
+      <c r="J10">
+        <v>-78.7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
       </c>
       <c r="L10">
-        <v>-78.7</v>
-      </c>
-      <c r="M10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10">
         <v>160</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
+      <c r="D11">
+        <v>-79.75</v>
+      </c>
+      <c r="E11">
+        <v>0.4</v>
       </c>
       <c r="F11">
-        <v>-79.75</v>
+        <v>157</v>
       </c>
       <c r="G11">
+        <v>110</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>157</v>
+      </c>
+      <c r="J11">
+        <v>-83.9</v>
+      </c>
+      <c r="K11">
         <v>0.4</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>157</v>
       </c>
-      <c r="I11">
-        <v>110</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>157</v>
-      </c>
-      <c r="L11">
-        <v>-83.9</v>
-      </c>
-      <c r="M11">
-        <v>0.4</v>
-      </c>
-      <c r="N11">
-        <v>157</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
+      <c r="D12">
+        <v>-80.25</v>
+      </c>
+      <c r="E12">
+        <v>0.4</v>
       </c>
       <c r="F12">
-        <v>-80.25</v>
+        <v>157</v>
       </c>
       <c r="G12">
+        <v>111</v>
+      </c>
+      <c r="I12">
+        <v>157</v>
+      </c>
+      <c r="J12">
+        <v>-84.6</v>
+      </c>
+      <c r="K12">
         <v>0.4</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <v>157</v>
       </c>
-      <c r="I12">
-        <v>111</v>
-      </c>
-      <c r="K12">
-        <v>157</v>
-      </c>
-      <c r="L12">
-        <v>-84.6</v>
-      </c>
-      <c r="M12">
-        <v>0.4</v>
-      </c>
-      <c r="N12">
-        <v>157</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
+      <c r="D14">
+        <v>484.17</v>
       </c>
       <c r="F14">
-        <v>484.17</v>
-      </c>
-      <c r="H14">
         <v>161</v>
       </c>
+      <c r="G14">
+        <v>241.5</v>
+      </c>
       <c r="I14">
-        <v>241.5</v>
-      </c>
-      <c r="K14">
         <v>161</v>
       </c>
+      <c r="J14">
+        <v>431.96</v>
+      </c>
       <c r="L14">
-        <v>431.96</v>
-      </c>
-      <c r="N14">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15">
+      <c r="D15">
         <v>-79.5</v>
       </c>
+      <c r="G15" s="1">
+        <v>120.9</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1">
-        <v>120.9</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1">
         <v>156</v>
       </c>
+      <c r="J15" s="1">
+        <v>-86.2</v>
+      </c>
+      <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <v>-86.2</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1">
         <v>156</v>
       </c>
-      <c r="O15" s="1">
+      <c r="M15" s="1">
         <v>1100</v>
       </c>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
+      <c r="D16">
+        <v>-31.8</v>
       </c>
       <c r="F16">
-        <v>-31.8</v>
-      </c>
-      <c r="H16">
         <v>162</v>
       </c>
+      <c r="J16">
+        <v>-11.318</v>
+      </c>
+      <c r="K16" t="s">
+        <v>90</v>
+      </c>
       <c r="L16">
-        <v>-11.318</v>
-      </c>
-      <c r="M16" t="s">
-        <v>90</v>
-      </c>
-      <c r="N16">
         <v>163</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
+      <c r="D17" s="1">
+        <v>-53.1</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1">
-        <v>-53.1</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1">
         <v>156</v>
       </c>
+      <c r="G17" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1">
-        <v>66.5</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1">
         <v>156</v>
       </c>
+      <c r="J17" s="1">
+        <v>-53.6</v>
+      </c>
+      <c r="K17" s="1"/>
       <c r="L17" s="1">
-        <v>-53.6</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1">
         <v>156</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
-        <v>12</v>
+      <c r="B21">
+        <v>-9.5060000000000002</v>
+      </c>
+      <c r="C21">
+        <v>155</v>
       </c>
       <c r="D21">
-        <v>-9.5060000000000002</v>
-      </c>
-      <c r="E21">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="F21">
+        <v>156</v>
+      </c>
+      <c r="G21">
+        <v>32.1</v>
+      </c>
+      <c r="I21">
+        <v>156</v>
+      </c>
+      <c r="J21" s="1">
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1">
         <v>156</v>
       </c>
-      <c r="I21">
-        <v>32.1</v>
-      </c>
-      <c r="K21">
-        <v>156</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1">
-        <v>156</v>
-      </c>
-      <c r="O21" s="1">
+      <c r="M21" s="1">
         <v>119</v>
       </c>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
+      <c r="B22">
+        <v>229.39</v>
+      </c>
+      <c r="C22">
+        <v>155</v>
       </c>
       <c r="D22">
-        <v>229.39</v>
-      </c>
-      <c r="E22">
-        <v>155</v>
+        <v>277.2</v>
       </c>
       <c r="F22">
-        <v>277.2</v>
-      </c>
-      <c r="H22">
         <v>156</v>
       </c>
+      <c r="G22">
+        <v>167.8</v>
+      </c>
       <c r="I22">
-        <v>167.8</v>
-      </c>
-      <c r="K22">
         <v>156</v>
       </c>
+      <c r="J22" s="1">
+        <v>236.7</v>
+      </c>
+      <c r="K22" s="1"/>
       <c r="L22" s="1">
-        <v>236.7</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1">
         <v>156</v>
       </c>
-      <c r="O22" s="1">
+      <c r="M22" s="1">
         <v>115.21</v>
       </c>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
+      <c r="B23">
+        <v>60.67</v>
+      </c>
+      <c r="C23">
+        <v>155</v>
       </c>
       <c r="D23">
-        <v>60.67</v>
-      </c>
-      <c r="E23">
-        <v>155</v>
+        <v>128.6</v>
       </c>
       <c r="F23">
-        <v>128.6</v>
-      </c>
-      <c r="H23">
         <v>156</v>
       </c>
+      <c r="G23">
+        <v>228.2</v>
+      </c>
       <c r="I23">
-        <v>228.2</v>
-      </c>
-      <c r="K23">
         <v>156</v>
       </c>
+      <c r="J23" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="K23" s="1"/>
       <c r="L23" s="1">
-        <v>79.7</v>
+        <v>156</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="1">
-        <v>156</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
+      <c r="B24">
+        <v>64.165000000000006</v>
+      </c>
+      <c r="C24">
+        <v>155</v>
       </c>
       <c r="D24">
-        <v>64.165000000000006</v>
-      </c>
-      <c r="E24">
-        <v>155</v>
+        <v>132.6</v>
       </c>
       <c r="F24">
-        <v>132.6</v>
-      </c>
-      <c r="H24">
         <v>162</v>
       </c>
-      <c r="L24">
+      <c r="J24">
         <v>92.68</v>
       </c>
-      <c r="N24" t="s">
-        <v>93</v>
-      </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
+      <c r="B25">
+        <v>91.1</v>
+      </c>
+      <c r="C25">
+        <v>155</v>
       </c>
       <c r="D25">
-        <v>91.1</v>
-      </c>
-      <c r="E25">
-        <v>155</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="F25">
-        <v>136.80000000000001</v>
-      </c>
-      <c r="H25">
         <v>162</v>
       </c>
-      <c r="L25">
+      <c r="J25">
         <v>119.6</v>
       </c>
-      <c r="N25" t="s">
-        <v>93</v>
-      </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
-        <v>10</v>
+      <c r="B26">
+        <v>15.32</v>
+      </c>
+      <c r="C26">
+        <v>155</v>
       </c>
       <c r="D26">
-        <v>15.32</v>
-      </c>
-      <c r="E26">
-        <v>155</v>
+        <v>123.8</v>
       </c>
       <c r="F26">
-        <v>123.8</v>
-      </c>
-      <c r="H26">
         <v>162</v>
       </c>
-      <c r="L26">
+      <c r="J26">
         <v>43.84</v>
       </c>
-      <c r="N26" t="s">
-        <v>93</v>
-      </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
+      <c r="B27">
+        <v>-6.7690000000000001</v>
+      </c>
+      <c r="C27">
+        <v>155</v>
       </c>
       <c r="D27">
-        <v>-6.7690000000000001</v>
-      </c>
-      <c r="E27">
-        <v>155</v>
+        <v>102.5</v>
       </c>
       <c r="F27">
-        <v>102.5</v>
-      </c>
-      <c r="H27">
         <v>162</v>
       </c>
-      <c r="L27">
+      <c r="J27">
         <v>21.75</v>
       </c>
-      <c r="N27" t="s">
-        <v>93</v>
-      </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
+      <c r="B28">
+        <v>-14.57</v>
+      </c>
+      <c r="C28">
+        <v>155</v>
       </c>
       <c r="D28">
-        <v>-14.57</v>
-      </c>
-      <c r="E28">
-        <v>155</v>
+        <v>113.4</v>
       </c>
       <c r="F28">
-        <v>113.4</v>
-      </c>
-      <c r="H28">
         <v>162</v>
       </c>
-      <c r="L28">
+      <c r="J28">
         <v>13.95</v>
       </c>
-      <c r="N28" t="s">
-        <v>93</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>93</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29">
+      <c r="B29">
         <v>-29.317</v>
       </c>
-      <c r="E29">
+      <c r="C29">
         <v>155</v>
       </c>
+      <c r="D29" s="1">
+        <v>101.277</v>
+      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1">
-        <v>101.277</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1">
         <v>156</v>
       </c>
+      <c r="G29" s="1">
+        <v>432.536</v>
+      </c>
+      <c r="H29" s="1"/>
       <c r="I29" s="1">
-        <v>432.536</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1">
         <v>156</v>
       </c>
+      <c r="J29" s="1">
+        <v>-0.79910000000000003</v>
+      </c>
+      <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <v>-0.79910000000000003</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1">
         <v>156</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30">
+      <c r="B30">
         <v>-15.26</v>
       </c>
-      <c r="E30">
+      <c r="C30">
         <v>155</v>
       </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="1">
+        <v>156</v>
+      </c>
+      <c r="G30" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
+        <v>156</v>
+      </c>
+      <c r="J30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
         <v>156</v>
       </c>
-      <c r="I30" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1">
-        <v>156</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1">
-        <v>156</v>
-      </c>
-      <c r="O30" s="1">
+      <c r="M30" s="1">
         <v>231.93</v>
       </c>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
+      <c r="D31" s="1">
+        <v>-2.1</v>
+      </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="1">
-        <v>-2.1</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1">
         <v>156</v>
       </c>
+      <c r="G31" s="1">
+        <v>44.1</v>
+      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="1">
-        <v>44.1</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1">
         <v>156</v>
       </c>
+      <c r="J31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K31" s="1"/>
       <c r="L31" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1">
         <v>156</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32">
+      <c r="B32">
         <v>-312.60000000000002</v>
       </c>
-      <c r="E32">
+      <c r="C32">
         <v>155</v>
       </c>
+      <c r="G32">
+        <v>163.6</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
       <c r="I32">
-        <v>163.6</v>
+        <v>166</v>
       </c>
       <c r="J32">
-        <v>6</v>
-      </c>
-      <c r="K32">
-        <v>166</v>
-      </c>
-      <c r="L32">
         <v>-235.6</v>
       </c>
-      <c r="N32" t="s">
-        <v>93</v>
-      </c>
-      <c r="O32" s="1">
+      <c r="L32" t="s">
+        <v>93</v>
+      </c>
+      <c r="M32" s="1">
         <v>760</v>
       </c>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33">
+      <c r="B33">
         <v>442.88</v>
       </c>
-      <c r="E33">
+      <c r="C33">
         <v>155</v>
       </c>
-      <c r="L33">
+      <c r="J33">
         <v>526.70000000000005</v>
       </c>
-      <c r="N33" t="s">
-        <v>93</v>
-      </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>93</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
+      <c r="B34">
+        <v>3.2869000000000002E-2</v>
+      </c>
+      <c r="C34">
+        <v>155</v>
       </c>
       <c r="D34">
-        <v>3.2869000000000002E-2</v>
-      </c>
-      <c r="E34">
-        <v>155</v>
+        <v>119.2</v>
       </c>
       <c r="F34">
-        <v>119.2</v>
-      </c>
-      <c r="H34">
         <v>162</v>
       </c>
+      <c r="G34" s="1">
+        <v>242.3</v>
+      </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="1">
-        <v>242.3</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1">
         <v>168</v>
       </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35">
+      <c r="D35">
         <v>-100</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="G35" s="1">
+        <v>77</v>
+      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="1">
-        <v>77</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1">
         <v>156</v>
       </c>
+      <c r="J35" s="1">
+        <v>-98.3</v>
+      </c>
+      <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <v>-98.3</v>
-      </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1">
         <v>156</v>
       </c>
-      <c r="O35" s="1">
+      <c r="M35" s="1">
         <v>880</v>
       </c>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="C36" t="s">
-        <v>8</v>
+      <c r="B36">
+        <v>-179.62</v>
+      </c>
+      <c r="C36">
+        <v>155</v>
       </c>
       <c r="D36">
-        <v>-179.62</v>
-      </c>
-      <c r="E36">
-        <v>155</v>
+        <v>-15.55</v>
       </c>
       <c r="F36">
-        <v>-15.55</v>
-      </c>
-      <c r="H36">
         <v>169</v>
       </c>
+      <c r="G36">
+        <v>87.5</v>
+      </c>
       <c r="I36">
-        <v>87.5</v>
-      </c>
-      <c r="K36">
         <v>169</v>
       </c>
+      <c r="J36">
+        <v>-145.39400000000001</v>
+      </c>
       <c r="L36">
-        <v>-145.39400000000001</v>
-      </c>
-      <c r="N36">
         <v>169</v>
       </c>
-      <c r="O36" s="1">
+      <c r="M36" s="1">
         <v>745</v>
       </c>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
+      <c r="B37">
         <v>-12.41</v>
       </c>
-      <c r="E37">
+      <c r="C37">
         <v>155</v>
       </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1"/>
       <c r="F37" s="1">
+        <v>156</v>
+      </c>
+      <c r="G37" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
+        <v>156</v>
+      </c>
+      <c r="J37" s="1">
         <v>0</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1">
+      <c r="K37" s="1"/>
+      <c r="L37" s="1">
         <v>156</v>
       </c>
-      <c r="I37" s="1">
-        <v>41.6</v>
-      </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1">
-        <v>156</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1">
-        <v>156</v>
-      </c>
-      <c r="O37" s="1">
+      <c r="M37" s="1">
         <v>419.53</v>
       </c>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
+      <c r="D38" s="1">
+        <v>130.4</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1">
-        <v>130.4</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1">
         <v>156</v>
       </c>
+      <c r="G38" s="1">
+        <v>160.1</v>
+      </c>
+      <c r="H38" s="1"/>
       <c r="I38" s="1">
-        <v>160.1</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1">
         <v>156</v>
       </c>
+      <c r="J38" s="1">
+        <v>94.8</v>
+      </c>
+      <c r="K38" s="1"/>
       <c r="L38" s="1">
-        <v>94.8</v>
+        <v>156</v>
       </c>
       <c r="M38" s="1"/>
-      <c r="N38" s="1">
-        <v>156</v>
-      </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39">
+      <c r="B39">
         <v>-222.375</v>
       </c>
-      <c r="E39">
+      <c r="C39">
         <v>155</v>
       </c>
+      <c r="D39" s="1">
+        <v>-206</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1">
-        <v>-206</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1">
         <v>156</v>
       </c>
+      <c r="G39" s="1">
+        <v>57.7</v>
+      </c>
+      <c r="H39" s="1"/>
       <c r="I39" s="1">
-        <v>57.7</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1">
         <v>156</v>
       </c>
+      <c r="J39" s="1">
+        <v>-201.3</v>
+      </c>
+      <c r="K39" s="1"/>
       <c r="L39" s="1">
-        <v>-201.3</v>
-      </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1">
         <v>156</v>
       </c>
-      <c r="O39" s="1">
+      <c r="M39" s="1">
         <v>1700</v>
       </c>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40">
+      <c r="B40">
         <v>-212.107</v>
       </c>
-      <c r="E40">
+      <c r="C40">
         <v>155</v>
       </c>
+      <c r="D40" s="1">
+        <v>-192.6</v>
+      </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="1">
-        <v>-192.6</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1">
         <v>156</v>
       </c>
-      <c r="L40">
+      <c r="J40">
         <v>-190.2</v>
       </c>
-      <c r="N40" t="s">
-        <v>93</v>
-      </c>
-      <c r="O40" s="1">
+      <c r="L40" t="s">
+        <v>93</v>
+      </c>
+      <c r="M40" s="1">
         <v>1700</v>
       </c>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41">
+      <c r="B41">
         <v>128.239</v>
       </c>
-      <c r="E41">
+      <c r="C41">
         <v>155</v>
       </c>
-      <c r="L41">
+      <c r="J41">
         <v>137.75</v>
       </c>
-      <c r="N41" t="s">
-        <v>93</v>
-      </c>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>93</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" t="s">
-        <v>8</v>
+      <c r="D43">
+        <v>-9.3699999999999992</v>
       </c>
       <c r="F43">
-        <v>-9.3699999999999992</v>
-      </c>
-      <c r="H43">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G43">
+        <v>2.8</v>
       </c>
       <c r="I43">
-        <v>2.8</v>
-      </c>
-      <c r="K43">
-        <v>164</v>
-      </c>
-      <c r="L43">
+        <v>164</v>
+      </c>
+      <c r="J43">
         <v>0.67</v>
       </c>
-      <c r="N43" t="s">
-        <v>93</v>
-      </c>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>93</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
-      <c r="C44" t="s">
-        <v>8</v>
+      <c r="D44">
+        <v>-8.891</v>
       </c>
       <c r="F44">
-        <v>-8.891</v>
-      </c>
-      <c r="H44">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G44">
+        <v>2.89</v>
       </c>
       <c r="I44">
-        <v>2.89</v>
-      </c>
-      <c r="K44">
-        <v>164</v>
-      </c>
-      <c r="L44">
+        <v>164</v>
+      </c>
+      <c r="J44">
         <v>1</v>
       </c>
-      <c r="N44" t="s">
-        <v>93</v>
-      </c>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>93</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="C45" t="s">
-        <v>8</v>
+      <c r="D45">
+        <v>-7.97</v>
       </c>
       <c r="F45">
-        <v>-7.97</v>
-      </c>
-      <c r="H45">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G45">
+        <v>2.89</v>
       </c>
       <c r="I45">
-        <v>2.89</v>
-      </c>
-      <c r="K45">
-        <v>164</v>
-      </c>
-      <c r="L45">
+        <v>164</v>
+      </c>
+      <c r="J45">
         <v>1.8</v>
       </c>
-      <c r="N45" t="s">
-        <v>93</v>
-      </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>93</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>101</v>
       </c>
-      <c r="C46" t="s">
-        <v>8</v>
+      <c r="D46">
+        <v>-7.03</v>
       </c>
       <c r="F46">
-        <v>-7.03</v>
-      </c>
-      <c r="H46">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G46">
+        <v>2.89</v>
       </c>
       <c r="I46">
-        <v>2.89</v>
-      </c>
-      <c r="K46">
-        <v>164</v>
-      </c>
-      <c r="L46">
+        <v>164</v>
+      </c>
+      <c r="J46">
         <v>2.6</v>
       </c>
-      <c r="N46" t="s">
-        <v>93</v>
-      </c>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>93</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
-      <c r="C47" t="s">
-        <v>8</v>
+      <c r="D47">
+        <v>-5.86</v>
       </c>
       <c r="F47">
-        <v>-5.86</v>
-      </c>
-      <c r="H47">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G47">
+        <v>2.72</v>
       </c>
       <c r="I47">
-        <v>2.72</v>
-      </c>
-      <c r="K47">
-        <v>164</v>
-      </c>
-      <c r="L47">
+        <v>164</v>
+      </c>
+      <c r="J47">
         <v>3.7</v>
       </c>
-      <c r="N47" t="s">
-        <v>93</v>
-      </c>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>93</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
-      <c r="C48" t="s">
-        <v>8</v>
+      <c r="D48">
+        <v>-4.5199999999999996</v>
       </c>
       <c r="F48">
-        <v>-4.5199999999999996</v>
-      </c>
-      <c r="H48">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G48">
+        <v>2.4300000000000002</v>
       </c>
       <c r="I48">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="K48">
-        <v>164</v>
-      </c>
-      <c r="L48">
+        <v>164</v>
+      </c>
+      <c r="J48">
         <v>5</v>
       </c>
-      <c r="N48" t="s">
-        <v>93</v>
-      </c>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>93</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
-      <c r="C49" t="s">
-        <v>8</v>
+      <c r="D49">
+        <v>-3.09</v>
       </c>
       <c r="F49">
-        <v>-3.09</v>
-      </c>
-      <c r="H49">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G49">
+        <v>2.0099999999999998</v>
       </c>
       <c r="I49">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="K49">
-        <v>164</v>
-      </c>
-      <c r="L49">
+        <v>164</v>
+      </c>
+      <c r="J49">
         <v>6.5</v>
       </c>
-      <c r="N49" t="s">
-        <v>93</v>
-      </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>93</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>68</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50">
+        <v>-1.58</v>
+      </c>
+      <c r="F50">
+        <v>164</v>
+      </c>
+      <c r="G50">
+        <v>1.3</v>
+      </c>
+      <c r="I50">
+        <v>164</v>
+      </c>
+      <c r="J50">
         <v>8</v>
       </c>
-      <c r="F50">
-        <v>-1.58</v>
-      </c>
-      <c r="H50">
-        <v>164</v>
-      </c>
-      <c r="I50">
-        <v>1.3</v>
-      </c>
-      <c r="K50">
-        <v>164</v>
-      </c>
-      <c r="L50">
-        <v>8</v>
-      </c>
-      <c r="N50" t="s">
-        <v>93</v>
-      </c>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>93</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>69</v>
       </c>
-      <c r="C51" t="s">
-        <v>8</v>
+      <c r="D51">
+        <v>-9.4550000000000001</v>
       </c>
       <c r="F51">
-        <v>-9.4550000000000001</v>
-      </c>
-      <c r="H51">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G51">
+        <v>3.72</v>
       </c>
       <c r="I51">
-        <v>3.72</v>
-      </c>
-      <c r="K51">
-        <v>164</v>
-      </c>
-      <c r="O51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
-      <c r="C52" t="s">
-        <v>8</v>
+      <c r="D52">
+        <v>-11.295999999999999</v>
       </c>
       <c r="F52">
-        <v>-11.295999999999999</v>
-      </c>
-      <c r="H52">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G52">
+        <v>1.2552000000000001</v>
       </c>
       <c r="I52">
-        <v>1.2552000000000001</v>
-      </c>
-      <c r="K52">
-        <v>164</v>
-      </c>
-      <c r="L52">
+        <v>164</v>
+      </c>
+      <c r="J52">
         <v>-0.52</v>
       </c>
-      <c r="N52" t="s">
-        <v>93</v>
-      </c>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>93</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
-      <c r="C53" t="s">
-        <v>8</v>
+      <c r="D53">
+        <v>-9.1419999999999995</v>
       </c>
       <c r="F53">
-        <v>-9.1419999999999995</v>
-      </c>
-      <c r="H53">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G53">
+        <v>4.18</v>
       </c>
       <c r="I53">
-        <v>4.18</v>
-      </c>
-      <c r="K53">
-        <v>164</v>
-      </c>
-      <c r="O53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>72</v>
       </c>
-      <c r="C54" t="s">
-        <v>8</v>
+      <c r="D54">
+        <v>-11.337999999999999</v>
       </c>
       <c r="F54">
-        <v>-11.337999999999999</v>
-      </c>
-      <c r="H54">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G54">
+        <v>0.92</v>
       </c>
       <c r="I54">
-        <v>0.92</v>
-      </c>
-      <c r="K54">
-        <v>164</v>
-      </c>
-      <c r="L54">
+        <v>164</v>
+      </c>
+      <c r="J54">
         <v>-0.51</v>
       </c>
-      <c r="N54" t="s">
-        <v>93</v>
-      </c>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>93</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>74</v>
       </c>
-      <c r="C55" t="s">
-        <v>8</v>
+      <c r="D55">
+        <v>-10.37</v>
       </c>
       <c r="F55">
-        <v>-10.37</v>
-      </c>
-      <c r="H55">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G55">
+        <v>1.97</v>
       </c>
       <c r="I55">
-        <v>1.97</v>
-      </c>
-      <c r="K55">
-        <v>164</v>
-      </c>
-      <c r="L55">
+        <v>164</v>
+      </c>
+      <c r="J55">
         <v>6.3E-2</v>
       </c>
-      <c r="N55" t="s">
-        <v>93</v>
-      </c>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L55" t="s">
+        <v>93</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>73</v>
       </c>
-      <c r="C56" t="s">
-        <v>8</v>
+      <c r="D56">
+        <v>-8.49</v>
       </c>
       <c r="F56">
-        <v>-8.49</v>
-      </c>
-      <c r="H56">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G56">
+        <v>4.5599999999999996</v>
       </c>
       <c r="I56">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="K56">
-        <v>164</v>
-      </c>
-      <c r="O56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>75</v>
       </c>
-      <c r="C57" t="s">
-        <v>8</v>
+      <c r="D57">
+        <v>-7.69</v>
       </c>
       <c r="F57">
-        <v>-7.69</v>
-      </c>
-      <c r="H57">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G57">
+        <v>4.8499999999999996</v>
       </c>
       <c r="I57">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="K57">
-        <v>164</v>
-      </c>
-      <c r="O57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>76</v>
       </c>
-      <c r="C58" t="s">
-        <v>8</v>
+      <c r="D58">
+        <v>-7.4475199999999999</v>
       </c>
       <c r="F58">
-        <v>-7.4475199999999999</v>
-      </c>
-      <c r="H58">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G58">
+        <v>4.8899999999999997</v>
       </c>
       <c r="I58">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="K58">
-        <v>164</v>
-      </c>
-      <c r="O58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
-      <c r="C59" t="s">
-        <v>8</v>
+      <c r="D59">
+        <v>-10.66</v>
       </c>
       <c r="F59">
-        <v>-10.66</v>
-      </c>
-      <c r="H59">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G59">
+        <v>1.1299999999999999</v>
       </c>
       <c r="I59">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="K59">
-        <v>164</v>
-      </c>
-      <c r="L59">
+        <v>164</v>
+      </c>
+      <c r="J59">
         <v>0.6</v>
       </c>
-      <c r="N59" t="s">
-        <v>93</v>
-      </c>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>93</v>
+      </c>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
-      <c r="C60" t="s">
-        <v>8</v>
+      <c r="D60">
+        <v>-12.34</v>
       </c>
       <c r="F60">
-        <v>-12.34</v>
-      </c>
-      <c r="H60">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G60">
+        <v>0.54</v>
       </c>
       <c r="I60">
-        <v>0.54</v>
-      </c>
-      <c r="K60">
-        <v>164</v>
-      </c>
-      <c r="L60">
+        <v>164</v>
+      </c>
+      <c r="J60">
         <v>-1.05</v>
       </c>
-      <c r="N60" t="s">
-        <v>93</v>
-      </c>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>93</v>
+      </c>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>79</v>
       </c>
-      <c r="C61" t="s">
-        <v>8</v>
+      <c r="D61">
+        <v>-11.715</v>
       </c>
       <c r="F61">
-        <v>-11.715</v>
-      </c>
-      <c r="H61">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G61">
+        <v>1.46</v>
       </c>
       <c r="I61">
-        <v>1.46</v>
-      </c>
-      <c r="K61">
-        <v>164</v>
-      </c>
-      <c r="L61">
+        <v>164</v>
+      </c>
+      <c r="J61">
         <v>-0.77600000000000002</v>
       </c>
-      <c r="N61" t="s">
-        <v>93</v>
-      </c>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>93</v>
+      </c>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>80</v>
       </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H62">
-        <v>164</v>
-      </c>
-      <c r="I62" s="3" t="s">
+      <c r="F62">
+        <v>164</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K62">
-        <v>164</v>
-      </c>
-      <c r="O62" s="1" t="s">
+      <c r="I62">
+        <v>164</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P62" s="1"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
-      <c r="C63" t="s">
-        <v>8</v>
+      <c r="D63">
+        <v>-5.3550000000000004</v>
       </c>
       <c r="F63">
-        <v>-5.3550000000000004</v>
-      </c>
-      <c r="H63">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>164</v>
-      </c>
-      <c r="L63">
+        <v>164</v>
+      </c>
+      <c r="J63">
         <v>6.4</v>
       </c>
-      <c r="N63" t="s">
-        <v>93</v>
-      </c>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>93</v>
+      </c>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="D64" t="s">
         <v>9</v>
       </c>
-      <c r="H64">
-        <v>164</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="F64">
+        <v>164</v>
+      </c>
+      <c r="G64" t="s">
         <v>9</v>
       </c>
-      <c r="K64">
-        <v>164</v>
+      <c r="I64">
+        <v>164</v>
+      </c>
+      <c r="J64" t="s">
+        <v>9</v>
       </c>
       <c r="L64" t="s">
-        <v>9</v>
-      </c>
-      <c r="N64" t="s">
-        <v>93</v>
-      </c>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
-      <c r="C65" t="s">
-        <v>8</v>
+      <c r="D65">
+        <v>-7.1959999999999997</v>
       </c>
       <c r="F65">
-        <v>-7.1959999999999997</v>
-      </c>
-      <c r="H65">
-        <v>164</v>
+        <v>164</v>
+      </c>
+      <c r="G65">
+        <v>0.83599999999999997</v>
       </c>
       <c r="I65">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="K65">
-        <v>164</v>
-      </c>
-      <c r="L65">
+        <v>164</v>
+      </c>
+      <c r="J65">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N65" t="s">
-        <v>93</v>
-      </c>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>93</v>
+      </c>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66">
+      <c r="B66">
         <v>-43.22</v>
       </c>
-      <c r="E66">
+      <c r="C66">
         <v>170</v>
       </c>
+      <c r="J66">
+        <v>-30.9</v>
+      </c>
+      <c r="K66" t="s">
+        <v>90</v>
+      </c>
       <c r="L66">
-        <v>-30.9</v>
-      </c>
-      <c r="M66" t="s">
-        <v>90</v>
-      </c>
-      <c r="N66">
         <v>170</v>
       </c>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>85</v>
       </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67">
+      <c r="B67">
         <v>-43.96</v>
       </c>
-      <c r="E67">
+      <c r="C67">
         <v>170</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
-      <c r="C68" t="s">
-        <v>62</v>
+      <c r="D68">
+        <v>-227.8</v>
       </c>
       <c r="F68">
-        <v>-227.8</v>
-      </c>
-      <c r="H68">
         <v>52</v>
       </c>
-      <c r="O68" s="1">
+      <c r="M68" s="1">
         <v>847</v>
       </c>
-      <c r="P68" s="1"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
-      <c r="C69" t="s">
-        <v>62</v>
+      <c r="D69">
+        <v>-406</v>
       </c>
       <c r="F69">
-        <v>-406</v>
-      </c>
-      <c r="H69">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -2629,26 +2404,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2663,1102 +2439,863 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>88</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
       <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" t="s">
         <v>88</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
+      <c r="B3">
         <f>-5.46*4.184</f>
         <v>-22.844640000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>-244.277072</v>
+      </c>
+      <c r="L4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>-79.5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5">
+        <v>120.9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5">
+        <v>-152.04</v>
+      </c>
+      <c r="L5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>-53.1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6">
+        <v>66.5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6">
+        <v>-93</v>
+      </c>
+      <c r="L6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>-244.277072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>-152.04</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>-93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22">
+      <c r="B7">
         <f>-5.679*4.184</f>
         <v>-23.760936000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <f>42.08*4.184</f>
-        <v>176.06272000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <f>-2.907*4.184</f>
-        <v>-12.162888000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <f>-6.068*4.184</f>
-        <v>-25.388511999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <f>-3.952*4.184</f>
-        <v>-16.535167999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <f>-22.16*4.184</f>
-        <v>-92.717440000000011</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <f>-30.512*4.184</f>
-        <v>-127.66220800000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <f>-35.838*4.184</f>
-        <v>-149.946192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <f>-42.177*4.184</f>
-        <v>-176.468568</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7">
+        <v>32.1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32">
+      <c r="B8">
         <f>-8.458*4.184</f>
         <v>-35.388272000000001</v>
       </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8">
+        <v>51.2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <f>4.184*-53.855</f>
+        <v>-225.32932</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9">
+        <f>4.184*60.358</f>
+        <v>252.53787199999999</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9">
+        <f>-90.07*4.184</f>
+        <v>-376.85287999999997</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <f>4.184*-75.59</f>
+        <v>-316.26856000000004</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10">
+        <f>87.929*4.184</f>
+        <v>367.89493600000003</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10">
+        <f>-128.347*4.184</f>
+        <v>-537.00384800000006</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>119.2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11">
+        <v>242.3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11">
+        <f>-10.61*4.184</f>
+        <v>-44.392240000000001</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>-15.55</v>
+      </c>
+      <c r="J12">
+        <f>-51.258*4.184</f>
+        <v>-214.46347200000002</v>
+      </c>
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13">
+        <v>41.6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13">
+        <f>-6.707*4.184</f>
+        <v>-28.062087999999999</v>
+      </c>
+      <c r="L13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>-206</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14">
+        <v>57.7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14">
+        <f>-58.652*4.184</f>
+        <v>-245.399968</v>
+      </c>
+      <c r="L14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>-192.6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15">
+        <f>-56.951*4.184</f>
+        <v>-238.282984</v>
+      </c>
+      <c r="L15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>-9.3699999999999992</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16">
+        <v>2.8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16">
+        <f>D16-600*G16/1000</f>
+        <v>-11.049999999999999</v>
+      </c>
+      <c r="L16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>-8.891</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17">
+        <v>2.89</v>
+      </c>
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J38" si="0">D17-600*G17/1000</f>
+        <v>-10.625</v>
+      </c>
+      <c r="L17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>-7.97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18">
+        <v>2.89</v>
+      </c>
+      <c r="I18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>-9.7040000000000006</v>
+      </c>
+      <c r="L18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19">
+        <v>-7.03</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19">
+        <v>2.89</v>
+      </c>
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>-8.7639999999999993</v>
+      </c>
+      <c r="L19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20">
+        <v>-5.86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20">
+        <v>2.72</v>
+      </c>
+      <c r="I20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>-7.4920000000000009</v>
+      </c>
+      <c r="L20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21">
+        <v>-4.5199999999999996</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>-5.9779999999999998</v>
+      </c>
+      <c r="L21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22">
+        <v>-3.09</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>-4.2959999999999994</v>
+      </c>
+      <c r="L22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23">
+        <v>-1.58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23">
+        <v>1.3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>-2.3600000000000003</v>
+      </c>
+      <c r="L23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24">
+        <v>-9.4550000000000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24">
+        <v>3.72</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>-11.687000000000001</v>
+      </c>
+      <c r="L24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25">
+        <v>-11.295999999999999</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25">
+        <v>1.2552000000000001</v>
+      </c>
+      <c r="I25" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>-12.049119999999998</v>
+      </c>
+      <c r="L25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26">
+        <v>-9.1419999999999995</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26">
+        <v>4.18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>-11.649999999999999</v>
+      </c>
+      <c r="L26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27">
+        <v>-11.337999999999999</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27">
+        <v>0.92</v>
+      </c>
+      <c r="I27" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>-11.889999999999999</v>
+      </c>
+      <c r="L27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28">
+        <v>-10.37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28">
+        <v>1.97</v>
+      </c>
+      <c r="I28" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>-11.552</v>
+      </c>
+      <c r="L28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29">
+        <v>-8.49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>-11.225999999999999</v>
+      </c>
+      <c r="L29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30">
+        <v>-7.69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>-10.600000000000001</v>
+      </c>
+      <c r="L30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <v>-7.4475199999999999</v>
+      </c>
+      <c r="F31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I31" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>-10.38152</v>
+      </c>
+      <c r="L31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32">
+        <v>-10.66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>-11.338000000000001</v>
+      </c>
+      <c r="L32" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
+        <v>78</v>
+      </c>
+      <c r="D33">
+        <v>-12.34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33">
+        <v>0.54</v>
+      </c>
+      <c r="I33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>-12.664</v>
+      </c>
+      <c r="L33" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="D34">
-        <f>-90.07*4.184</f>
-        <v>-376.85287999999997</v>
+        <v>-11.715</v>
+      </c>
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34">
+        <v>1.46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>-12.590999999999999</v>
+      </c>
+      <c r="L34" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <f>-128.347*4.184</f>
-        <v>-537.00384800000006</v>
+        <v>80</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="D36">
-        <f>-10.61*4.184</f>
-        <v>-44.392240000000001</v>
+        <v>-5.3550000000000004</v>
+      </c>
+      <c r="F36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>-5.9550000000000001</v>
+      </c>
+      <c r="L36" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D38">
-        <f>-51.258*4.184</f>
-        <v>-214.46347200000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <f>-6.707*4.184</f>
-        <v>-28.062087999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42">
-        <f>-58.652*4.184</f>
-        <v>-245.399968</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43">
-        <f>-56.951*4.184</f>
-        <v>-238.282984</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <f>11.769*4.184</f>
-        <v>49.241496000000005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48">
-        <v>-9.3699999999999992</v>
-      </c>
-      <c r="H48">
-        <v>164</v>
-      </c>
-      <c r="I48">
-        <v>2.8</v>
-      </c>
-      <c r="K48">
-        <v>164</v>
-      </c>
-      <c r="L48">
-        <f>F48-600*I48/1000</f>
-        <v>-11.049999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49">
-        <v>-8.891</v>
-      </c>
-      <c r="H49">
-        <v>164</v>
-      </c>
-      <c r="I49">
-        <v>2.89</v>
-      </c>
-      <c r="K49">
-        <v>164</v>
-      </c>
-      <c r="L49">
-        <f t="shared" ref="L49:L70" si="0">F49-600*I49/1000</f>
-        <v>-10.625</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50">
-        <v>-7.97</v>
-      </c>
-      <c r="H50">
-        <v>164</v>
-      </c>
-      <c r="I50">
-        <v>2.89</v>
-      </c>
-      <c r="K50">
-        <v>164</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="0"/>
-        <v>-9.7040000000000006</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51">
-        <v>-7.03</v>
-      </c>
-      <c r="H51">
-        <v>164</v>
-      </c>
-      <c r="I51">
-        <v>2.89</v>
-      </c>
-      <c r="K51">
-        <v>164</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>-8.7639999999999993</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52">
-        <v>-5.86</v>
-      </c>
-      <c r="H52">
-        <v>164</v>
-      </c>
-      <c r="I52">
-        <v>2.72</v>
-      </c>
-      <c r="K52">
-        <v>164</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="0"/>
-        <v>-7.4920000000000009</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53">
-        <v>-4.5199999999999996</v>
-      </c>
-      <c r="H53">
-        <v>164</v>
-      </c>
-      <c r="I53">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="K53">
-        <v>164</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="0"/>
-        <v>-5.9779999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54">
-        <v>-3.09</v>
-      </c>
-      <c r="H54">
-        <v>164</v>
-      </c>
-      <c r="I54">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="K54">
-        <v>164</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>-4.2959999999999994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55">
-        <v>-1.58</v>
-      </c>
-      <c r="H55">
-        <v>164</v>
-      </c>
-      <c r="I55">
-        <v>1.3</v>
-      </c>
-      <c r="K55">
-        <v>164</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="0"/>
-        <v>-2.3600000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56">
-        <v>-9.4550000000000001</v>
-      </c>
-      <c r="H56">
-        <v>164</v>
-      </c>
-      <c r="I56">
-        <v>3.72</v>
-      </c>
-      <c r="K56">
-        <v>164</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="0"/>
-        <v>-11.687000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57">
-        <v>-11.295999999999999</v>
-      </c>
-      <c r="H57">
-        <v>164</v>
-      </c>
-      <c r="I57">
-        <v>1.2552000000000001</v>
-      </c>
-      <c r="K57">
-        <v>164</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="0"/>
-        <v>-12.049119999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58">
-        <v>-9.1419999999999995</v>
-      </c>
-      <c r="H58">
-        <v>164</v>
-      </c>
-      <c r="I58">
-        <v>4.18</v>
-      </c>
-      <c r="K58">
-        <v>164</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="0"/>
-        <v>-11.649999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59">
-        <v>-11.337999999999999</v>
-      </c>
-      <c r="H59">
-        <v>164</v>
-      </c>
-      <c r="I59">
-        <v>0.92</v>
-      </c>
-      <c r="K59">
-        <v>164</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="0"/>
-        <v>-11.889999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60">
-        <v>-10.37</v>
-      </c>
-      <c r="H60">
-        <v>164</v>
-      </c>
-      <c r="I60">
-        <v>1.97</v>
-      </c>
-      <c r="K60">
-        <v>164</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="0"/>
-        <v>-11.552</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61">
-        <v>-8.49</v>
-      </c>
-      <c r="H61">
-        <v>164</v>
-      </c>
-      <c r="I61">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="K61">
-        <v>164</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="0"/>
-        <v>-11.225999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62">
-        <v>-7.69</v>
-      </c>
-      <c r="H62">
-        <v>164</v>
-      </c>
-      <c r="I62">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="K62">
-        <v>164</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="0"/>
-        <v>-10.600000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63">
-        <v>-7.4475199999999999</v>
-      </c>
-      <c r="H63">
-        <v>164</v>
-      </c>
-      <c r="I63">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="K63">
-        <v>164</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="0"/>
-        <v>-10.38152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64">
-        <v>-10.66</v>
-      </c>
-      <c r="H64">
-        <v>164</v>
-      </c>
-      <c r="I64">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="K64">
-        <v>164</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="0"/>
-        <v>-11.338000000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65">
-        <v>-12.34</v>
-      </c>
-      <c r="H65">
-        <v>164</v>
-      </c>
-      <c r="I65">
-        <v>0.54</v>
-      </c>
-      <c r="K65">
-        <v>164</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="0"/>
-        <v>-12.664</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66">
-        <v>-11.715</v>
-      </c>
-      <c r="H66">
-        <v>164</v>
-      </c>
-      <c r="I66">
-        <v>1.46</v>
-      </c>
-      <c r="K66">
-        <v>164</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="0"/>
-        <v>-12.590999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67">
-        <v>164</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K67">
-        <v>164</v>
-      </c>
-      <c r="L67" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68">
-        <v>-5.3550000000000004</v>
-      </c>
-      <c r="H68">
-        <v>164</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="K68">
-        <v>164</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="0"/>
-        <v>-5.9550000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69">
-        <v>164</v>
-      </c>
-      <c r="I69" t="s">
-        <v>9</v>
-      </c>
-      <c r="K69">
-        <v>164</v>
-      </c>
-      <c r="L69" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70">
         <v>-7.1959999999999997</v>
       </c>
-      <c r="H70">
-        <v>164</v>
-      </c>
-      <c r="I70">
+      <c r="F38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38">
         <v>0.83599999999999997</v>
       </c>
-      <c r="K70">
-        <v>164</v>
-      </c>
-      <c r="L70">
+      <c r="I38" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="0"/>
         <v>-7.6975999999999996</v>
       </c>
+      <c r="L38" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3771,8 +3308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
